--- a/src/10t/assets/BEAM.xlsx
+++ b/src/10t/assets/BEAM.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
-    <t xml:space="preserve"> 二级BOM  主梁，4.5˂S≤5 ，4.4m˂H0≤6m（图号：M60331）</t>
-  </si>
-  <si>
-    <t>7004-00146</t>
+    <t xml:space="preserve"> 二级BOM  主梁，4.5˂S≤5 ，4.4m˂H0≤6m（图号：M60531）</t>
+  </si>
+  <si>
+    <t>7004-00440</t>
   </si>
   <si>
     <t>主梁</t>
@@ -31,7 +31,7 @@
     <t>筋板100（30）X50（20）t5 C15</t>
   </si>
   <si>
-    <t>板 5×50×100</t>
+    <t>板 6×50×100</t>
   </si>
   <si>
     <t>件</t>
@@ -91,13 +91,13 @@
     <t>M310501.4</t>
   </si>
   <si>
-    <t>7004-00184</t>
+    <t>7004-00478</t>
   </si>
   <si>
     <t>工字钢 I28b</t>
   </si>
   <si>
-    <t>工字钢 I28b-(S-28)</t>
+    <t>工字钢 I30T-(S-34)</t>
   </si>
   <si>
     <t>是</t>
@@ -106,13 +106,13 @@
     <t>Q235BF</t>
   </si>
   <si>
-    <t>7004-00185</t>
+    <t>7004-00479</t>
   </si>
   <si>
     <t>侧盖板</t>
   </si>
   <si>
-    <t>侧盖板 5×260×(S-28)</t>
+    <t>侧盖板 5×300×(S-34)</t>
   </si>
   <si>
     <t>Q235B</t>
@@ -124,67 +124,67 @@
     <t>吊装管</t>
   </si>
   <si>
-    <t>吊装管φ89×5.75×370</t>
+    <t>吊装管φ89×5.75×420</t>
   </si>
   <si>
     <t>借NF100-00</t>
   </si>
   <si>
-    <t>7004-00186</t>
+    <t>7004-00480</t>
   </si>
   <si>
     <t xml:space="preserve">U型槽 </t>
   </si>
   <si>
-    <t>U型槽 5×350×275-(S-6)</t>
-  </si>
-  <si>
-    <t>7004-00187</t>
+    <t>U型槽 5×400×450-(S-4)</t>
+  </si>
+  <si>
+    <t>7004-00481</t>
   </si>
   <si>
     <t>隔板</t>
   </si>
   <si>
-    <t>隔板 5×340×365</t>
-  </si>
-  <si>
-    <t>7004-00188</t>
+    <t>隔板 5×390×575</t>
+  </si>
+  <si>
+    <t>7004-00482</t>
   </si>
   <si>
     <t>燕尾板</t>
   </si>
   <si>
-    <t>燕尾板 6×420×400</t>
-  </si>
-  <si>
-    <t>7004-00189</t>
+    <t>燕尾板 8×520×450</t>
+  </si>
+  <si>
+    <t>7004-00483</t>
   </si>
   <si>
     <t>挂板</t>
   </si>
   <si>
-    <t>挂板 16×295×500</t>
-  </si>
-  <si>
-    <t>7004-00190</t>
+    <t>挂板 20×420×600</t>
+  </si>
+  <si>
+    <t>7004-00484</t>
   </si>
   <si>
     <t>堵头板</t>
   </si>
   <si>
-    <t>堵头板 6×570×660</t>
-  </si>
-  <si>
-    <t>7004-00191</t>
+    <t>堵头板 8×570×890</t>
+  </si>
+  <si>
+    <t>7004-00485</t>
   </si>
   <si>
     <t>加强板</t>
   </si>
   <si>
-    <t>板 6×280×450</t>
-  </si>
-  <si>
-    <t>7004-00192</t>
+    <t>板 8×279×500</t>
+  </si>
+  <si>
+    <t>7004-00486</t>
   </si>
   <si>
     <t>挑线架</t>
@@ -193,13 +193,13 @@
     <t>M60331.1A</t>
   </si>
   <si>
-    <t>7004-00193</t>
+    <t>7004-00487</t>
   </si>
   <si>
     <t>法兰板</t>
   </si>
   <si>
-    <t>板 12×590×540</t>
+    <t>板 12×590×730</t>
   </si>
 </sst>
 </file>
@@ -236,6 +236,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -250,75 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,24 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,6 +356,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -412,55 +412,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,126 +574,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -606,6 +606,26 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -648,27 +668,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -679,6 +679,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,6 +721,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -720,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,134 +755,134 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -893,6 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1233,7 +1255,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1271,871 +1293,871 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" ht="15.6" spans="1:21">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="6">
+      <c r="H2" s="10"/>
+      <c r="I2" s="7">
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="M2" s="6">
+      <c r="K2" s="9"/>
+      <c r="L2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="7">
         <f t="shared" ref="M2:M18" si="0">L2*I2</f>
-        <v>0.8</v>
-      </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="15" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" ht="15.6" spans="1:21">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="6">
+      <c r="H3" s="10"/>
+      <c r="I3" s="7">
         <v>4</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="6">
+      <c r="K3" s="9"/>
+      <c r="L3" s="7">
         <v>0.062</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <f t="shared" si="0"/>
         <v>0.248</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="15" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="15.6" spans="1:21">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="6">
+      <c r="H4" s="10"/>
+      <c r="I4" s="7">
         <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="6">
+      <c r="K4" s="9"/>
+      <c r="L4" s="7">
         <v>0.016</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <f t="shared" si="0"/>
         <v>0.064</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="15" t="s">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="15.6" spans="1:21">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="6">
+      <c r="H5" s="10"/>
+      <c r="I5" s="7">
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="6">
+      <c r="K5" s="9"/>
+      <c r="L5" s="7">
         <v>0.006</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <f t="shared" si="0"/>
         <v>0.024</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="15" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" ht="15.6" spans="1:21">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="6">
+      <c r="H6" s="10"/>
+      <c r="I6" s="7">
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="K6" s="9"/>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="15" t="s">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" ht="15.6" spans="1:21">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="6">
+      <c r="H7" s="10"/>
+      <c r="I7" s="7">
         <v>2</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="K7" s="9"/>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="15" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" ht="15.6" spans="1:21">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="6">
-        <v>238</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="L8" s="7">
+        <v>353.6</v>
+      </c>
+      <c r="M8" s="7">
         <f t="shared" si="0"/>
-        <v>238</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8" t="s">
+        <v>353.6</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="15" t="s">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" ht="15.6" spans="1:21">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>2</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="6">
-        <v>55.7</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="L9" s="7">
+        <v>55.8</v>
+      </c>
+      <c r="M9" s="7">
         <f t="shared" si="0"/>
-        <v>111.4</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
+        <v>111.6</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="15" t="s">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" ht="15.6" spans="1:21">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="6">
+      <c r="H10" s="10"/>
+      <c r="I10" s="7">
         <v>2</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6">
+      <c r="K10" s="9"/>
+      <c r="L10" s="7">
         <v>4.3</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="7">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="15" t="s">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" ht="15.6" spans="1:21">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="6">
-        <v>176</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="L11" s="7">
+        <v>215.3</v>
+      </c>
+      <c r="M11" s="7">
         <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8" t="s">
+        <v>215.3</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="15" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" ht="15.6" spans="1:21">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="B12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="14">
+      <c r="H12" s="10"/>
+      <c r="I12" s="16">
         <v>6</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="14">
-        <v>4.33</v>
-      </c>
-      <c r="M12" s="14">
+      <c r="L12" s="16">
+        <v>5</v>
+      </c>
+      <c r="M12" s="16">
         <f t="shared" si="0"/>
-        <v>25.98</v>
-      </c>
-      <c r="N12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="15" t="s">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" ht="15.6" spans="1:21">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="6">
+      <c r="H13" s="10"/>
+      <c r="I13" s="7">
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="L13" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="M13" s="7">
         <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="N13" s="8" t="s">
+        <v>4.7</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="15" t="s">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" ht="15.6" spans="1:21">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="6">
+      <c r="H14" s="10"/>
+      <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <v>15.1</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="7">
         <f t="shared" si="0"/>
         <v>15.1</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="15" t="s">
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" ht="15.6" spans="1:21">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="6">
+      <c r="H15" s="10"/>
+      <c r="I15" s="7">
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="6">
-        <v>11.75</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="L15" s="7">
+        <v>17.13</v>
+      </c>
+      <c r="M15" s="7">
         <f t="shared" si="0"/>
-        <v>11.75</v>
-      </c>
-      <c r="N15" s="8" t="s">
+        <v>17.13</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="15" t="s">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" ht="15.6" spans="1:21">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="6">
+      <c r="H16" s="10"/>
+      <c r="I16" s="7">
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="6">
-        <v>4.4</v>
-      </c>
-      <c r="M16" s="6">
+      <c r="L16" s="7">
+        <v>4.6</v>
+      </c>
+      <c r="M16" s="7">
         <f t="shared" si="0"/>
-        <v>8.8</v>
-      </c>
-      <c r="N16" s="8" t="s">
+        <v>9.2</v>
+      </c>
+      <c r="N16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="15" t="s">
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" ht="15.6" spans="1:21">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="B17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="6">
+      <c r="H17" s="10"/>
+      <c r="I17" s="7">
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="6">
+      <c r="K17" s="9"/>
+      <c r="L17" s="7">
         <v>2.9</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="7">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="15" t="s">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" ht="15.6" spans="1:21">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6">
+      <c r="H18" s="10"/>
+      <c r="I18" s="7">
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="6">
-        <v>32.2</v>
-      </c>
-      <c r="M18" s="6">
+      <c r="L18" s="7">
+        <v>37.3</v>
+      </c>
+      <c r="M18" s="7">
         <f t="shared" si="0"/>
-        <v>32.2</v>
-      </c>
-      <c r="N18" s="8" t="s">
+        <v>37.3</v>
+      </c>
+      <c r="N18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="15" t="s">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/10t/assets/BEAM.xlsx
+++ b/src/10t/assets/BEAM.xlsx
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -235,6 +235,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -242,15 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -265,31 +314,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,24 +341,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -335,45 +373,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,187 +406,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,17 +635,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,11 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,47 +732,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -740,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,133 +752,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="DH8" sqref="DH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/src/10t/assets/BEAM.xlsx
+++ b/src/10t/assets/BEAM.xlsx
@@ -209,8 +209,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -235,8 +235,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -252,18 +357,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,109 +372,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -406,175 +406,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,22 +635,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +680,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -684,54 +732,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -740,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,133 +752,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DH8" sqref="DH8"/>
+      <selection activeCell="K12" sqref="K12:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1822,9 +1822,7 @@
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K12" s="9"/>
       <c r="L12" s="16">
         <v>5</v>
       </c>
@@ -1874,9 +1872,7 @@
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K13" s="9"/>
       <c r="L13" s="7">
         <v>4.7</v>
       </c>
@@ -1926,9 +1922,7 @@
       <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K14" s="9"/>
       <c r="L14" s="7">
         <v>15.1</v>
       </c>
@@ -1978,9 +1972,7 @@
       <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="7">
         <v>17.13</v>
       </c>
@@ -2030,9 +2022,7 @@
       <c r="J16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K16" s="9"/>
       <c r="L16" s="7">
         <v>4.6</v>
       </c>
@@ -2134,9 +2124,7 @@
       <c r="J18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="7">
         <v>37.3</v>
       </c>
